--- a/Base/Backlog_17.xlsx
+++ b/Base/Backlog_17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7B3238-C08C-4BA6-9C05-A260CCB64ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1856B747-3BD3-4593-A722-EFA23731296B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -115,10 +115,10 @@
     <t>Arthur Hassuma</t>
   </si>
   <si>
-    <t>Erick Silva</t>
-  </si>
-  <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Erick da Silva</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="13">
         <v>2025</v>
@@ -648,7 +648,7 @@
         <v>45775</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>11</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="13">
         <v>2025</v>
@@ -683,7 +683,7 @@
         <v>45775</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>11</v>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="13">
         <v>2025</v>
@@ -718,7 +718,7 @@
         <v>45775</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>11</v>
@@ -858,7 +858,7 @@
         <v>45775</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>11</v>
@@ -893,7 +893,7 @@
         <v>45775</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>11</v>
@@ -1033,7 +1033,7 @@
         <v>45775</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>11</v>
@@ -1068,7 +1068,7 @@
         <v>45775</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>11</v>
@@ -1313,7 +1313,7 @@
         <v>45775</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>11</v>
@@ -1348,7 +1348,7 @@
         <v>45775</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>11</v>
@@ -1721,7 +1721,7 @@
         <v>45775</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
